--- a/public/import/daily_template(1).xlsx
+++ b/public/import/daily_template(1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="54">
   <si>
     <t>date</t>
   </si>
@@ -157,22 +157,25 @@
     <t>20:30</t>
   </si>
   <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
-    <t>2022-06-14</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>2022-06-19</t>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
+  </si>
+  <si>
+    <t>2022-08-21</t>
   </si>
 </sst>
 </file>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="A189" sqref="A189:A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,6 +2582,347 @@
         <v>34</v>
       </c>
     </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
